--- a/data/lfs_output_validation.xlsx
+++ b/data/lfs_output_validation.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EUCalc\dev\lifestyles\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746F91A4-0EC9-4429-A5E6-E2C9CDB6D5CB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{746F91A4-0EC9-4429-A5E6-E2C9CDB6D5CB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="9070" windowWidth="19200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="default" sheetId="1" r:id="rId1"/>
+    <sheet name="default" r:id="rId5" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -113,6 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,16 +141,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -166,10 +167,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -204,7 +205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -256,7 +257,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -367,21 +368,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -398,7 +399,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -450,328 +451,377 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="29" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="17.7265625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Dimension</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Lower bound (value/person)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Upper bound (value/person)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>lfs_diet_oilcrops[kcal]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lfs_diet_pulses[kcal]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>lfs_diet_starch[kcal]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>lfs_diet_coffee[kcal]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>lfs_diet_stm[kcal]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>lfs_diet_sugar[kcal]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lfs_diet_sweet[kcal]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>lfs_diet_voil[kcal]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lfs_diet_veg[kcal]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>lfs_diet_dfish[kcal]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>lfs_diet_ffish[kcal]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>lfs_diet_pfish[kcal]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>lfs_diet_seafood[kcal]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>lfs_diet_oth-aq-animals[kcal]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>lfs_diet_egg[kcal]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>lfs_diet_milk[kcal]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>lfs_diet_offal[kcal]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>lfs_diet_bov[kcal]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>lfs_diet_sheep[kcal]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>lfs_diet_pigs[kcal]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>lfs_diet_poultry[kcal]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>lfs_diet_oth-animals[kcal]</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>lfs_pop_population[inhabitants]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>lfs_travel-no-urb[pkm]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>lfs_travel-urb[pkm]</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>lfs_non-shift[pkm]</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>